--- a/xlsx/液体燃料_intext.xlsx
+++ b/xlsx/液体燃料_intext.xlsx
@@ -29,7 +29,7 @@
     <t>RS-68火箭发动机</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_液体燃料</t>
+    <t>政策_政策_混合动力车辆_液体燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克拉克大學</t>
+    <t>克拉克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%AE%AD%E5%8B%95%E5%8A%9B%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>火箭動力飛機</t>
+    <t>火箭动力飞机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hellmuth_Walter</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/A-20%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>A-20轟炸機</t>
+    <t>A-20轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-29%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-29轟炸機</t>
+    <t>B-29轰炸机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/B-45_Tornado</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/B-47%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-47轟炸機</t>
+    <t>B-47轰炸机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/JATO</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8A%9B%E7%A5%9E%E7%B3%BB%E5%88%97%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>大力神系列運載火箭</t>
+    <t>大力神系列运载火箭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/LR-87</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%9F%B3%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>紅石飛彈</t>
+    <t>红石飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E5%8D%AB%E6%98%9F</t>
@@ -569,13 +569,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E8%AB%BE1%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>朱諾1號運載火箭</t>
+    <t>朱诺1号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%BB%8C%E9%81%93%E5%A4%AA%E7%A9%BA%E9%A3%9B%E8%A1%8C</t>
   </si>
   <si>
-    <t>亞軌道太空飛行</t>
+    <t>亚轨道太空飞行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mercury-Redstone_Launch_Vehicle</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E9%B7%B9%E7%B3%BB%E5%88%97%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>獵鷹系列運載火箭</t>
+    <t>猎鹰系列运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E6%9E%97%E7%81%AB%E7%AE%AD%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E7%A6%BD%E7%81%AB%E7%AE%AD%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>猛禽火箭發動機</t>
+    <t>猛禽火箭发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E7%83%B7</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>東方號運載火箭</t>
+    <t>东方号运载火箭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Voskhod_(rocket)</t>
@@ -941,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F%E8%99%9F%E7%B3%BB%E5%88%97%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>聯盟號系列運載火箭</t>
+    <t>联盟号系列运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/RD-253%E7%81%AB%E7%AE%AD%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -1001,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8A%A0%E6%8B%89%E7%B3%BB%E5%88%97%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>安加拉系列運載火箭</t>
+    <t>安加拉系列运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/RD-191%E7%81%AB%E7%AE%AD%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -1349,13 +1349,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E8%BC%BB%E5%B0%84</t>
   </si>
   <si>
-    <t>熱輻射</t>
+    <t>热辐射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B9%B3%E8%A1%A1</t>
   </si>
   <si>
-    <t>熱平衡</t>
+    <t>热平衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E9%80%9A%E9%87%8F</t>
@@ -1367,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%A9%9F%E6%9D%90%E6%96%99</t>
   </si>
   <si>
-    <t>有機材料</t>
+    <t>有机材料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%91%E6%96%99</t>
@@ -1415,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%98%BB</t>
   </si>
   <si>
-    <t>熱阻</t>
+    <t>热阻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E9%93%9D</t>
@@ -1499,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%B0%A3%E6%B8%A6%E8%BC%AA</t>
   </si>
   <si>
-    <t>燃氣渦輪</t>
+    <t>燃气涡轮</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Turbopump</t>
@@ -1541,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A5%E9%96%80</t>
   </si>
   <si>
-    <t>閥門</t>
+    <t>阀门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%84%9F%E5%99%A8</t>
@@ -1613,7 +1613,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E6%B0%A3</t>
   </si>
   <si>
-    <t>氫氣</t>
+    <t>氢气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%AC%E5%8C%96%E5%89%82</t>
@@ -1649,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%B3%AA%E8%88%87%E7%95%B0%E8%B3%AA</t>
   </si>
   <si>
-    <t>同質與異質</t>
+    <t>同质与异质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6%E5%B9%B3%E8%A1%A1</t>
@@ -1751,7 +1751,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E6%85%8B%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>固態火箭</t>
+    <t>固态火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%BC%8F%E7%81%AB%E7%AE%AD</t>
